--- a/.excel/Year_transactions_2024-03-08.xlsx
+++ b/.excel/Year_transactions_2024-03-08.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
   <si>
     <t>Transaction_id</t>
   </si>
@@ -46,6 +46,48 @@
   </si>
   <si>
     <t>Jumlah_Transaksi</t>
+  </si>
+  <si>
+    <t>00000000-0000-0000-0000-000000000000</t>
+  </si>
+  <si>
+    <t>0001-01-01T00:00:00Z</t>
+  </si>
+  <si>
+    <t>ACCEPT</t>
+  </si>
+  <si>
+    <t>2</t>
+  </si>
+  <si>
+    <t>34567890-3456-3456-3456-345678901234</t>
+  </si>
+  <si>
+    <t>33333333-3333-3333-3333-333333333333</t>
+  </si>
+  <si>
+    <t>99999999-9999-9999-9999-999999999999</t>
+  </si>
+  <si>
+    <t>2024-03-11T00:00:00Z</t>
+  </si>
+  <si>
+    <t>Training session</t>
+  </si>
+  <si>
+    <t>2024-03-13T00:00:00Z</t>
+  </si>
+  <si>
+    <t>2024-03-07T11:55:20.667375Z</t>
+  </si>
+  <si>
+    <t>2024-03-06T09:51:37.808009Z</t>
+  </si>
+  <si>
+    <t>0</t>
+  </si>
+  <si>
+    <t>45678901-4567-4567-4567-456789012345</t>
   </si>
 </sst>
 </file>
@@ -412,7 +454,7 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:J1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
     <sheetView windowProtection="false" showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
@@ -464,6 +506,100 @@
         <v>9</v>
       </c>
     </row>
+    <row r="2">
+      <c r="A2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C2" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" s="1" t="s"/>
+      <c r="F2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="G2" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="I2" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="J2" s="1" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="s">
+        <v>23</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="F4" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="G4" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="I4" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="J4" s="1" t="s">
+        <v>22</v>
+      </c>
+    </row>
   </sheetData>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
